--- a/parlament.xlsx
+++ b/parlament.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Desktop\github\stat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\datascience-python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77F66011-40D5-4C58-BFB3-907FE995DE67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51EB7FE2-B9C2-4678-B7DB-48D516FA19C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>Название кампании</t>
   </si>
@@ -159,13 +159,44 @@
   </si>
   <si>
     <t>3.6.Численность населения ниже границы бедности ( в % от общей численности населения)</t>
+  </si>
+  <si>
+    <t>Республика Тыва</t>
+  </si>
+  <si>
+    <t>Мурманская область</t>
+  </si>
+  <si>
+    <t>Курская область</t>
+  </si>
+  <si>
+    <t>Вологодская область</t>
+  </si>
+  <si>
+    <t>Республика Алтай</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,765
+</t>
+  </si>
+  <si>
+    <t>41,5</t>
+  </si>
+  <si>
+    <t>49,2</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>45,7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,6 +226,20 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -242,10 +287,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -292,9 +338,29 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный 2" xfId="1" xr:uid="{3F06F22B-8855-4640-8E87-9C6233FB6C60}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -507,10 +573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{071F5EC6-B1D0-4234-84EB-99B8BA3752E8}">
-  <dimension ref="A1:AL5"/>
+  <dimension ref="A1:AL11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AL1" sqref="AL1"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1117,6 +1183,367 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
+    <row r="6" spans="1:38" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="19"/>
+      <c r="C6" s="18">
+        <v>337.54399999999998</v>
+      </c>
+      <c r="D6" s="18">
+        <v>2.44</v>
+      </c>
+      <c r="E6" s="19"/>
+      <c r="F6" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="18">
+        <v>55.7</v>
+      </c>
+      <c r="H6" s="18">
+        <v>44.3</v>
+      </c>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19">
+        <v>17.8</v>
+      </c>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="18">
+        <v>25</v>
+      </c>
+      <c r="Q6" s="20">
+        <v>39209</v>
+      </c>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="19"/>
+      <c r="V6" s="19"/>
+      <c r="W6" s="19"/>
+      <c r="X6" s="18">
+        <v>23.5</v>
+      </c>
+      <c r="Y6" s="19"/>
+      <c r="Z6" s="21">
+        <v>59.1</v>
+      </c>
+      <c r="AA6" s="19"/>
+      <c r="AB6" s="19"/>
+      <c r="AC6" s="19"/>
+      <c r="AD6" s="19"/>
+      <c r="AE6" s="19"/>
+      <c r="AF6" s="17"/>
+      <c r="AG6" s="17">
+        <v>0.8</v>
+      </c>
+      <c r="AH6" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="AI6" s="17">
+        <v>5.5E-2</v>
+      </c>
+      <c r="AJ6" s="17">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="AK6" s="17">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="AL6" s="19"/>
+    </row>
+    <row r="7" spans="1:38" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="19"/>
+      <c r="C7" s="18">
+        <v>656.43799999999999</v>
+      </c>
+      <c r="D7" s="18">
+        <v>1.45</v>
+      </c>
+      <c r="E7" s="19"/>
+      <c r="F7" s="18">
+        <v>-2.9239999999999999</v>
+      </c>
+      <c r="G7" s="18">
+        <v>94.33</v>
+      </c>
+      <c r="H7" s="18">
+        <v>5.67</v>
+      </c>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19">
+        <v>33.1</v>
+      </c>
+      <c r="L7" s="19">
+        <v>9.4</v>
+      </c>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="18">
+        <v>266.89999999999998</v>
+      </c>
+      <c r="Q7" s="18">
+        <v>67115</v>
+      </c>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="19"/>
+      <c r="W7" s="19"/>
+      <c r="X7" s="18">
+        <v>6.7</v>
+      </c>
+      <c r="Y7" s="19"/>
+      <c r="Z7" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA7" s="19"/>
+      <c r="AB7" s="19"/>
+      <c r="AC7" s="19"/>
+      <c r="AD7" s="19"/>
+      <c r="AE7" s="19"/>
+      <c r="AF7" s="17"/>
+      <c r="AG7" s="17">
+        <v>0.73899999999999999</v>
+      </c>
+      <c r="AH7" s="17">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="AI7" s="17">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AJ7" s="17"/>
+      <c r="AK7" s="19"/>
+      <c r="AL7" s="19"/>
+    </row>
+    <row r="8" spans="1:38" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="19"/>
+      <c r="C8" s="18">
+        <v>1060.8920000000001</v>
+      </c>
+      <c r="D8" s="18">
+        <v>1.26</v>
+      </c>
+      <c r="E8" s="19"/>
+      <c r="F8" s="18">
+        <f>-7.833</f>
+        <v>-7.8330000000000002</v>
+      </c>
+      <c r="G8" s="18">
+        <v>68.760000000000005</v>
+      </c>
+      <c r="H8" s="18">
+        <v>31.24</v>
+      </c>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19">
+        <v>15</v>
+      </c>
+      <c r="L8" s="19">
+        <v>10.1</v>
+      </c>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19">
+        <v>10.6</v>
+      </c>
+      <c r="O8" s="19"/>
+      <c r="P8" s="18">
+        <v>231</v>
+      </c>
+      <c r="Q8" s="18">
+        <v>65176</v>
+      </c>
+      <c r="R8" s="19"/>
+      <c r="S8" s="19"/>
+      <c r="T8" s="19"/>
+      <c r="U8" s="19"/>
+      <c r="V8" s="19"/>
+      <c r="W8" s="19"/>
+      <c r="X8" s="18">
+        <v>7.6</v>
+      </c>
+      <c r="Y8" s="19"/>
+      <c r="Z8" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA8" s="19"/>
+      <c r="AB8" s="19"/>
+      <c r="AC8" s="19"/>
+      <c r="AD8" s="19"/>
+      <c r="AE8" s="19"/>
+      <c r="AF8" s="17"/>
+      <c r="AG8" s="17">
+        <v>0.65300000000000002</v>
+      </c>
+      <c r="AH8" s="17">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="AI8" s="17">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="AJ8" s="17">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="AK8" s="19"/>
+      <c r="AL8" s="19"/>
+    </row>
+    <row r="9" spans="1:38" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="19"/>
+      <c r="C9" s="18">
+        <v>210.76499999999999</v>
+      </c>
+      <c r="D9" s="18">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="E9" s="19"/>
+      <c r="F9" s="18">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="G9" s="18">
+        <v>69.2</v>
+      </c>
+      <c r="H9" s="18">
+        <v>30.8</v>
+      </c>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19">
+        <v>22.6</v>
+      </c>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19">
+        <v>12.6</v>
+      </c>
+      <c r="O9" s="19"/>
+      <c r="P9" s="18">
+        <v>180</v>
+      </c>
+      <c r="Q9" s="18">
+        <v>38500</v>
+      </c>
+      <c r="R9" s="19"/>
+      <c r="S9" s="19"/>
+      <c r="T9" s="19"/>
+      <c r="U9" s="19"/>
+      <c r="V9" s="19"/>
+      <c r="W9" s="19"/>
+      <c r="X9" s="18">
+        <v>16.5</v>
+      </c>
+      <c r="Y9" s="19"/>
+      <c r="Z9" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA9" s="19"/>
+      <c r="AB9" s="19"/>
+      <c r="AC9" s="19"/>
+      <c r="AD9" s="19"/>
+      <c r="AE9" s="19"/>
+      <c r="AF9" s="17"/>
+      <c r="AG9" s="17">
+        <v>0.74099999999999999</v>
+      </c>
+      <c r="AH9" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="AI9" s="17"/>
+      <c r="AJ9" s="17"/>
+      <c r="AK9" s="19"/>
+      <c r="AL9" s="19"/>
+    </row>
+    <row r="10" spans="1:38" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="19"/>
+      <c r="C10" s="18">
+        <v>1121.3</v>
+      </c>
+      <c r="D10" s="18">
+        <v>1.39</v>
+      </c>
+      <c r="E10" s="19"/>
+      <c r="F10" s="22">
+        <v>-6.641</v>
+      </c>
+      <c r="G10" s="18">
+        <v>72.7</v>
+      </c>
+      <c r="H10" s="18">
+        <v>27.3</v>
+      </c>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19">
+        <v>51.6</v>
+      </c>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19">
+        <v>7.2</v>
+      </c>
+      <c r="O10" s="19"/>
+      <c r="P10" s="18">
+        <v>186</v>
+      </c>
+      <c r="Q10" s="18">
+        <v>57178</v>
+      </c>
+      <c r="R10" s="19"/>
+      <c r="S10" s="19"/>
+      <c r="T10" s="19"/>
+      <c r="U10" s="19"/>
+      <c r="V10" s="19"/>
+      <c r="W10" s="19"/>
+      <c r="X10" s="18">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="Y10" s="19"/>
+      <c r="Z10" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA10" s="19"/>
+      <c r="AB10" s="19"/>
+      <c r="AC10" s="19"/>
+      <c r="AD10" s="19"/>
+      <c r="AE10" s="19"/>
+      <c r="AF10" s="17"/>
+      <c r="AG10" s="17">
+        <v>0.623</v>
+      </c>
+      <c r="AH10" s="17">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="AI10" s="17">
+        <v>0.193</v>
+      </c>
+      <c r="AJ10" s="17">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="AK10" s="19"/>
+      <c r="AL10" s="19"/>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="AE11" s="16"/>
+      <c r="AF11" s="16"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
